--- a/Code/Results/Cases/Case_1_74/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_74/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8822306905466348</v>
+        <v>1.016663885422162</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03747475874084927</v>
+        <v>0.04019708553675727</v>
       </c>
       <c r="E2">
-        <v>0.1408256641381322</v>
+        <v>0.2964442090293467</v>
       </c>
       <c r="F2">
-        <v>0.8991786315051655</v>
+        <v>1.114510798142931</v>
       </c>
       <c r="G2">
-        <v>0.8279536028981198</v>
+        <v>0.9793921434366268</v>
       </c>
       <c r="H2">
-        <v>0.5508489735966151</v>
+        <v>0.9850565702653142</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.548322485404213</v>
+        <v>0.460593782447404</v>
       </c>
       <c r="L2">
-        <v>0.1973905545663541</v>
+        <v>0.1298334265487995</v>
       </c>
       <c r="M2">
-        <v>0.219256170079845</v>
+        <v>0.2107858950860653</v>
       </c>
       <c r="N2">
-        <v>1.207682292752683</v>
+        <v>2.404653009114547</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7925346015075547</v>
+        <v>0.997794682840464</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03625373224831918</v>
+        <v>0.03964343104020429</v>
       </c>
       <c r="E3">
-        <v>0.141854371160191</v>
+        <v>0.2972261244797068</v>
       </c>
       <c r="F3">
-        <v>0.8332004893575657</v>
+        <v>1.104247300246456</v>
       </c>
       <c r="G3">
-        <v>0.7685949719722203</v>
+        <v>0.9700920039772996</v>
       </c>
       <c r="H3">
-        <v>0.5301207628570523</v>
+        <v>0.9854591262481023</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.347478310450526</v>
+        <v>0.4014044872924387</v>
       </c>
       <c r="L3">
-        <v>0.1724084208279066</v>
+        <v>0.1236262339500769</v>
       </c>
       <c r="M3">
-        <v>0.1946694277833814</v>
+        <v>0.2052274366943507</v>
       </c>
       <c r="N3">
-        <v>1.258723942049166</v>
+        <v>2.425925513465124</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7382958922948433</v>
+        <v>0.9866955024923527</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03549818834336804</v>
+        <v>0.03929840936695328</v>
       </c>
       <c r="E4">
-        <v>0.1425420003776932</v>
+        <v>0.297739208691131</v>
       </c>
       <c r="F4">
-        <v>0.7942500294908754</v>
+        <v>1.098594398568451</v>
       </c>
       <c r="G4">
-        <v>0.7337155970939477</v>
+        <v>0.9649874524818642</v>
       </c>
       <c r="H4">
-        <v>0.5183065614852609</v>
+        <v>0.9861595530082923</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.22464691821088</v>
+        <v>0.3650238376978905</v>
       </c>
       <c r="L4">
-        <v>0.1572322106008599</v>
+        <v>0.1198830468782717</v>
       </c>
       <c r="M4">
-        <v>0.179773120267626</v>
+        <v>0.2019207055858843</v>
       </c>
       <c r="N4">
-        <v>1.29153034684127</v>
+        <v>2.439696762824571</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7163881626342175</v>
+        <v>0.982295258106177</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03518881239991245</v>
+        <v>0.03915654199535368</v>
       </c>
       <c r="E5">
-        <v>0.1428360380215608</v>
+        <v>0.2979566076570146</v>
       </c>
       <c r="F5">
-        <v>0.7787436278105702</v>
+        <v>1.096453876676605</v>
       </c>
       <c r="G5">
-        <v>0.7198692498159005</v>
+        <v>0.9630594387145237</v>
       </c>
       <c r="H5">
-        <v>0.5137095672057796</v>
+        <v>0.9865589805686739</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.17468466867939</v>
+        <v>0.3501889955130366</v>
       </c>
       <c r="L5">
-        <v>0.15108433786191</v>
+        <v>0.118374823443844</v>
       </c>
       <c r="M5">
-        <v>0.173748874396253</v>
+        <v>0.2005999703093124</v>
       </c>
       <c r="N5">
-        <v>1.305258804092961</v>
+        <v>2.445487131226621</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7127617543266922</v>
+        <v>0.9815720273469424</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03513735054500344</v>
+        <v>0.03913290866693941</v>
       </c>
       <c r="E6">
-        <v>0.1428856905244769</v>
+        <v>0.2979932092243176</v>
       </c>
       <c r="F6">
-        <v>0.7761901842178673</v>
+        <v>1.096108291584507</v>
       </c>
       <c r="G6">
-        <v>0.7175915032880908</v>
+        <v>0.9627484762888514</v>
       </c>
       <c r="H6">
-        <v>0.512959026228728</v>
+        <v>0.9866321911201084</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.166393218715655</v>
+        <v>0.3477251166699489</v>
       </c>
       <c r="L6">
-        <v>0.1500655719348032</v>
+        <v>0.1181254215257539</v>
       </c>
       <c r="M6">
-        <v>0.1727512205407606</v>
+        <v>0.2003822834050553</v>
       </c>
       <c r="N6">
-        <v>1.307559862023453</v>
+        <v>2.446459396131274</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7379996667390287</v>
+        <v>0.9866356616614098</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03549402202953189</v>
+        <v>0.03929650121820316</v>
       </c>
       <c r="E7">
-        <v>0.1425459102266733</v>
+        <v>0.2977421069249082</v>
       </c>
       <c r="F7">
-        <v>0.7940394553821051</v>
+        <v>1.098564870561603</v>
       </c>
       <c r="G7">
-        <v>0.7335274075821445</v>
+        <v>0.9649608348945975</v>
       </c>
       <c r="H7">
-        <v>0.5182437002209355</v>
+        <v>0.9861644782262431</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.223972773631345</v>
+        <v>0.3648238077913959</v>
       </c>
       <c r="L7">
-        <v>0.1571491558747908</v>
+        <v>0.1198626369295042</v>
       </c>
       <c r="M7">
-        <v>0.1796916938052853</v>
+        <v>0.2019027851277144</v>
       </c>
       <c r="N7">
-        <v>1.291714049482167</v>
+        <v>2.439774131165812</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8511208590982164</v>
+        <v>1.010057028159878</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03705494453582148</v>
+        <v>0.04000724356417962</v>
       </c>
       <c r="E8">
-        <v>0.1411685768776549</v>
+        <v>0.2967069786383834</v>
       </c>
       <c r="F8">
-        <v>0.8760892918003691</v>
+        <v>1.110837194484986</v>
       </c>
       <c r="G8">
-        <v>0.8071448949559255</v>
+        <v>0.9760596049884214</v>
       </c>
       <c r="H8">
-        <v>0.5435048267237761</v>
+        <v>0.985101309633464</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.478951435322415</v>
+        <v>0.4401933221098204</v>
       </c>
       <c r="L8">
-        <v>0.1887401599741168</v>
+        <v>0.1276790853360552</v>
       </c>
       <c r="M8">
-        <v>0.2107345432397132</v>
+        <v>0.2088473477463424</v>
       </c>
       <c r="N8">
-        <v>1.224971358521472</v>
+        <v>2.411840427495676</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.080305723151156</v>
+        <v>1.059832755626616</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04007099387684931</v>
+        <v>0.04136043984953375</v>
       </c>
       <c r="E9">
-        <v>0.1389249140946784</v>
+        <v>0.294937984418935</v>
       </c>
       <c r="F9">
-        <v>1.050634041615993</v>
+        <v>1.140059341120804</v>
       </c>
       <c r="G9">
-        <v>0.9652368410305598</v>
+        <v>1.002642069916575</v>
       </c>
       <c r="H9">
-        <v>0.6008757271698499</v>
+        <v>0.9866129257637795</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.984309603995825</v>
+        <v>0.5876895878130881</v>
       </c>
       <c r="L9">
-        <v>0.2521975652207686</v>
+        <v>0.1435461491932415</v>
       </c>
       <c r="M9">
-        <v>0.2734002867350647</v>
+        <v>0.2233054154845178</v>
       </c>
       <c r="N9">
-        <v>1.106164405508402</v>
+        <v>2.362695154495128</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.254266406153818</v>
+        <v>1.098733762311753</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0422620317480451</v>
+        <v>0.0423295928413232</v>
       </c>
       <c r="E10">
-        <v>0.1375755606974636</v>
+        <v>0.2937962129155136</v>
       </c>
       <c r="F10">
-        <v>1.189085476748843</v>
+        <v>1.164686270516953</v>
       </c>
       <c r="G10">
-        <v>1.091696147863985</v>
+        <v>1.025128557261837</v>
       </c>
       <c r="H10">
-        <v>0.6486858674048364</v>
+        <v>0.9899178323372695</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.361094868898107</v>
+        <v>0.6958808678934929</v>
       </c>
       <c r="L10">
-        <v>0.3000625460387738</v>
+        <v>0.1555324007699852</v>
       </c>
       <c r="M10">
-        <v>0.3208386143029216</v>
+        <v>0.2344374458612606</v>
       </c>
       <c r="N10">
-        <v>1.026885126391974</v>
+        <v>2.330021302308594</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.334879923599885</v>
+        <v>1.116934277012433</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04325411296844806</v>
+        <v>0.04276498924005878</v>
       </c>
       <c r="E11">
-        <v>0.1370318994068982</v>
+        <v>0.2933108415689771</v>
       </c>
       <c r="F11">
-        <v>1.254746994675031</v>
+        <v>1.176578602103248</v>
       </c>
       <c r="G11">
-        <v>1.151934399770226</v>
+        <v>1.036004574171216</v>
       </c>
       <c r="H11">
-        <v>0.6718792828955316</v>
+        <v>0.9918983177838641</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.534243761912109</v>
+        <v>0.7450649588255942</v>
       </c>
       <c r="L11">
-        <v>0.3221856989852654</v>
+        <v>0.1610567471388435</v>
       </c>
       <c r="M11">
-        <v>0.3427967366317546</v>
+        <v>0.239611974875892</v>
       </c>
       <c r="N11">
-        <v>0.99271406673207</v>
+        <v>2.315902487958496</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.365642078487213</v>
+        <v>1.123898516687774</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04362918929059134</v>
+        <v>0.04292906828853305</v>
       </c>
       <c r="E12">
-        <v>0.1368366279131705</v>
+        <v>0.2931319187983317</v>
       </c>
       <c r="F12">
-        <v>1.280038139482286</v>
+        <v>1.181181241258457</v>
       </c>
       <c r="G12">
-        <v>1.175177627364207</v>
+        <v>1.040216329880366</v>
       </c>
       <c r="H12">
-        <v>0.6808892169334513</v>
+        <v>0.9927168935254542</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.600111177959917</v>
+        <v>0.76368498562735</v>
       </c>
       <c r="L12">
-        <v>0.3306203849275846</v>
+        <v>0.1631589676432412</v>
       </c>
       <c r="M12">
-        <v>0.3511726624439717</v>
+        <v>0.2415872626935567</v>
       </c>
       <c r="N12">
-        <v>0.9800610830990237</v>
+        <v>2.310663183827806</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.359006035217959</v>
+        <v>1.122395442949824</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04354843560950172</v>
+        <v>0.04289376647409426</v>
       </c>
       <c r="E13">
-        <v>0.1368782027881936</v>
+        <v>0.2931702363746596</v>
       </c>
       <c r="F13">
-        <v>1.27457157338263</v>
+        <v>1.180185563311966</v>
       </c>
       <c r="G13">
-        <v>1.170151841092888</v>
+        <v>1.039305102125979</v>
       </c>
       <c r="H13">
-        <v>0.6789383398993323</v>
+        <v>0.9925375470674567</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.585911306034376</v>
+        <v>0.7596750521273634</v>
       </c>
       <c r="L13">
-        <v>0.3288011672493667</v>
+        <v>0.1627057607919795</v>
       </c>
       <c r="M13">
-        <v>0.3493659414707011</v>
+        <v>0.2411611475061903</v>
       </c>
       <c r="N13">
-        <v>0.9827731267151805</v>
+        <v>2.311786793035296</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.337405885196176</v>
+        <v>1.117505786567534</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04328498241628864</v>
+        <v>0.04277850412738005</v>
       </c>
       <c r="E14">
-        <v>0.137015618677796</v>
+        <v>0.293296023837551</v>
       </c>
       <c r="F14">
-        <v>1.256818914825558</v>
+        <v>1.176955273684584</v>
       </c>
       <c r="G14">
-        <v>1.153837714103474</v>
+        <v>1.036349207749794</v>
       </c>
       <c r="H14">
-        <v>0.6726158673547502</v>
+        <v>0.991964287433575</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.539656415174079</v>
+        <v>0.7465969395432239</v>
       </c>
       <c r="L14">
-        <v>0.322878439054648</v>
+        <v>0.1612294925124047</v>
       </c>
       <c r="M14">
-        <v>0.3434845704007756</v>
+        <v>0.2397741667080169</v>
       </c>
       <c r="N14">
-        <v>0.9916672614240198</v>
+        <v>2.315469298536335</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.324206561284882</v>
+        <v>1.114520108177089</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04312353320960938</v>
+        <v>0.04270779867802688</v>
       </c>
       <c r="E15">
-        <v>0.1371011867527199</v>
+        <v>0.2933737069229296</v>
       </c>
       <c r="F15">
-        <v>1.246001732718014</v>
+        <v>1.174989560043912</v>
       </c>
       <c r="G15">
-        <v>1.143902460186183</v>
+        <v>1.034550787214101</v>
       </c>
       <c r="H15">
-        <v>0.6687733481082887</v>
+        <v>0.9916220844897623</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.511364496504285</v>
+        <v>0.7385855704598328</v>
       </c>
       <c r="L15">
-        <v>0.3192582519486962</v>
+        <v>0.160326571719736</v>
       </c>
       <c r="M15">
-        <v>0.3398901877449987</v>
+        <v>0.2389266567876547</v>
       </c>
       <c r="N15">
-        <v>0.9971529855854584</v>
+        <v>2.317738901077981</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.249029792684468</v>
+        <v>1.097554427556503</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04219710881907091</v>
+        <v>0.04230102772608646</v>
       </c>
       <c r="E16">
-        <v>0.1376125444383915</v>
+        <v>0.2938286163875696</v>
       </c>
       <c r="F16">
-        <v>1.184851706872976</v>
+        <v>1.163922962961863</v>
       </c>
       <c r="G16">
-        <v>1.087817540904183</v>
+        <v>1.024430819344175</v>
       </c>
       <c r="H16">
-        <v>0.6472008081189813</v>
+        <v>0.9897980033567535</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.349818386998322</v>
+        <v>0.6926658954466802</v>
       </c>
       <c r="L16">
-        <v>0.2986243504700781</v>
+        <v>0.1551728114311999</v>
       </c>
       <c r="M16">
-        <v>0.3194117518098949</v>
+        <v>0.234101494697434</v>
       </c>
       <c r="N16">
-        <v>1.029157606463656</v>
+        <v>2.330958993438173</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.203305661225187</v>
+        <v>1.087275390322731</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04162763234688427</v>
+        <v>0.04205007816005235</v>
       </c>
       <c r="E17">
-        <v>0.137944561251059</v>
+        <v>0.2941163920131222</v>
       </c>
       <c r="F17">
-        <v>1.148052680057006</v>
+        <v>1.157310635673838</v>
       </c>
       <c r="G17">
-        <v>1.054134771635958</v>
+        <v>1.01838837515588</v>
       </c>
       <c r="H17">
-        <v>0.6343499793495653</v>
+        <v>0.9888011817752442</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.251195775099433</v>
+        <v>0.6644871366480629</v>
       </c>
       <c r="L17">
-        <v>0.2860602928250415</v>
+        <v>0.1520294883011815</v>
       </c>
       <c r="M17">
-        <v>0.3069502101570833</v>
+        <v>0.2311696580315186</v>
       </c>
       <c r="N17">
-        <v>1.049286376423858</v>
+        <v>2.339259893440982</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.177143979868106</v>
+        <v>1.081410647059016</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04129964409841236</v>
+        <v>0.04190522367542826</v>
       </c>
       <c r="E18">
-        <v>0.1381420987330935</v>
+        <v>0.2942851166039961</v>
       </c>
       <c r="F18">
-        <v>1.12713637246695</v>
+        <v>1.15357228314906</v>
       </c>
       <c r="G18">
-        <v>1.035013789830217</v>
+        <v>1.014973786972419</v>
       </c>
       <c r="H18">
-        <v>0.6270932169396275</v>
+        <v>0.9882727396474991</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.194631991714374</v>
+        <v>0.6482763986917632</v>
       </c>
       <c r="L18">
-        <v>0.2788661946268149</v>
+        <v>0.1502282872569083</v>
       </c>
       <c r="M18">
-        <v>0.2998178411486307</v>
+        <v>0.229493750201776</v>
       </c>
       <c r="N18">
-        <v>1.061041196500852</v>
+        <v>2.344104438647662</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.168309048383435</v>
+        <v>1.079433114246058</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04118851552015812</v>
+        <v>0.04185609026161785</v>
       </c>
       <c r="E19">
-        <v>0.1382100954081582</v>
+        <v>0.2943427945771484</v>
       </c>
       <c r="F19">
-        <v>1.120096122586062</v>
+        <v>1.152317680909661</v>
       </c>
       <c r="G19">
-        <v>1.028581877815625</v>
+        <v>1.013828112712133</v>
       </c>
       <c r="H19">
-        <v>0.6246587710098481</v>
+        <v>0.9881015302054408</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.175506768256071</v>
+        <v>0.642787202411256</v>
       </c>
       <c r="L19">
-        <v>0.2764357620872886</v>
+        <v>0.1496195931524511</v>
       </c>
       <c r="M19">
-        <v>0.2974087965396279</v>
+        <v>0.2289281066416677</v>
       </c>
       <c r="N19">
-        <v>1.065051200119804</v>
+        <v>2.345756752962359</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.208158667594944</v>
+        <v>1.088364699628272</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0416882992512484</v>
+        <v>0.04207684552654101</v>
       </c>
       <c r="E20">
-        <v>0.1379085340024577</v>
+        <v>0.2940854263576829</v>
       </c>
       <c r="F20">
-        <v>1.151943886810713</v>
+        <v>1.158007813058688</v>
       </c>
       <c r="G20">
-        <v>1.057693935568068</v>
+        <v>1.01902530256001</v>
       </c>
       <c r="H20">
-        <v>0.635703896318887</v>
+        <v>0.9889026477601845</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.261677285580106</v>
+        <v>0.6674871320730915</v>
       </c>
       <c r="L20">
-        <v>0.287394354967816</v>
+        <v>0.1523634016001694</v>
       </c>
       <c r="M20">
-        <v>0.3082730762044719</v>
+        <v>0.231480680576766</v>
       </c>
       <c r="N20">
-        <v>1.047125184432048</v>
+        <v>2.3383689939973</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.343743787205398</v>
+        <v>1.118940043680084</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04336238082429134</v>
+        <v>0.04281238114668895</v>
       </c>
       <c r="E21">
-        <v>0.1369749641865439</v>
+        <v>0.2932589447822858</v>
       </c>
       <c r="F21">
-        <v>1.262021378246189</v>
+        <v>1.177901392789082</v>
       </c>
       <c r="G21">
-        <v>1.158617479867814</v>
+        <v>1.037214893086173</v>
       </c>
       <c r="H21">
-        <v>0.6744666048163026</v>
+        <v>0.9921308055959344</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.553234057382952</v>
+        <v>0.7504384335657051</v>
       </c>
       <c r="L21">
-        <v>0.3246164794462061</v>
+        <v>0.1616628299193934</v>
       </c>
       <c r="M21">
-        <v>0.3452103657109049</v>
+        <v>0.2401811283012023</v>
       </c>
       <c r="N21">
-        <v>0.9890469312279819</v>
+        <v>2.314384747639238</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.433741557345826</v>
+        <v>1.13934286079575</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04445301046527916</v>
+        <v>0.04328845185717967</v>
       </c>
       <c r="E22">
-        <v>0.1364269002815304</v>
+        <v>0.2927472098427548</v>
       </c>
       <c r="F22">
-        <v>1.336471374673962</v>
+        <v>1.191481688520994</v>
       </c>
       <c r="G22">
-        <v>1.22711902709969</v>
+        <v>1.049646449559276</v>
       </c>
       <c r="H22">
-        <v>0.7011341577729127</v>
+        <v>0.9946405025373508</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.74555568573669</v>
+        <v>0.8046231170858107</v>
       </c>
       <c r="L22">
-        <v>0.3492799086676115</v>
+        <v>0.1678003866063023</v>
       </c>
       <c r="M22">
-        <v>0.3697091504519037</v>
+        <v>0.2459594635495748</v>
       </c>
       <c r="N22">
-        <v>0.952769087524679</v>
+        <v>2.299334457732876</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.385573235847545</v>
+        <v>1.128415193239107</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04387121564252183</v>
+        <v>0.04303479175205283</v>
       </c>
       <c r="E23">
-        <v>0.136713545788417</v>
+        <v>0.2930177373748013</v>
       </c>
       <c r="F23">
-        <v>1.296491968306441</v>
+        <v>1.184180634498603</v>
       </c>
       <c r="G23">
-        <v>1.19031087556499</v>
+        <v>1.042961676051505</v>
       </c>
       <c r="H23">
-        <v>0.6867722839835153</v>
+        <v>0.9932644356743197</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.642730706632562</v>
+        <v>0.7757064397324882</v>
       </c>
       <c r="L23">
-        <v>0.3360833326754999</v>
+        <v>0.1645191965941564</v>
       </c>
       <c r="M23">
-        <v>0.35659864239706</v>
+        <v>0.2428670593203606</v>
       </c>
       <c r="N23">
-        <v>0.9719724351902528</v>
+        <v>2.307309877539744</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.205964233512134</v>
+        <v>1.087872083275187</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04166087358177961</v>
+        <v>0.04206474580682595</v>
       </c>
       <c r="E24">
-        <v>0.1379248012255538</v>
+        <v>0.2940994157183681</v>
       </c>
       <c r="F24">
-        <v>1.150183927947168</v>
+        <v>1.157692422422073</v>
       </c>
       <c r="G24">
-        <v>1.056084081676104</v>
+        <v>1.018737162999926</v>
       </c>
       <c r="H24">
-        <v>0.635091382777091</v>
+        <v>0.9888566359198734</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.256938175718432</v>
+        <v>0.6661308665074728</v>
       </c>
       <c r="L24">
-        <v>0.2867911352067125</v>
+        <v>0.152212420901165</v>
       </c>
       <c r="M24">
-        <v>0.3076749094705491</v>
+        <v>0.2313400372374375</v>
       </c>
       <c r="N24">
-        <v>1.048101691904058</v>
+        <v>2.338771544586571</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.017409260034867</v>
+        <v>1.045956773997176</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03925964746734678</v>
+        <v>0.0409987397611502</v>
       </c>
       <c r="E25">
-        <v>0.1394809797984216</v>
+        <v>0.2953887325255145</v>
       </c>
       <c r="F25">
-        <v>1.001767121608538</v>
+        <v>1.131600520154876</v>
       </c>
       <c r="G25">
-        <v>0.9208075960838045</v>
+        <v>0.9949330379543824</v>
       </c>
       <c r="H25">
-        <v>0.5844294903942284</v>
+        <v>0.9858187822824647</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.846803762280842</v>
+        <v>0.5478192996095288</v>
       </c>
       <c r="L25">
-        <v>0.2348372566961814</v>
+        <v>0.1391959696345282</v>
       </c>
       <c r="M25">
-        <v>0.2562255173501562</v>
+        <v>0.2193044545246003</v>
       </c>
       <c r="N25">
-        <v>1.136948276087587</v>
+        <v>2.375387318338209</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_74/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_74/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.016663885422162</v>
+        <v>0.8822306905466633</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04019708553675727</v>
+        <v>0.03747475874073203</v>
       </c>
       <c r="E2">
-        <v>0.2964442090293467</v>
+        <v>0.1408256641381325</v>
       </c>
       <c r="F2">
-        <v>1.114510798142931</v>
+        <v>0.8991786315051655</v>
       </c>
       <c r="G2">
-        <v>0.9793921434366268</v>
+        <v>0.8279536028981767</v>
       </c>
       <c r="H2">
-        <v>0.9850565702653142</v>
+        <v>0.5508489735966151</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.460593782447404</v>
+        <v>1.548322485404242</v>
       </c>
       <c r="L2">
-        <v>0.1298334265487995</v>
+        <v>0.1973905545663257</v>
       </c>
       <c r="M2">
-        <v>0.2107858950860653</v>
+        <v>0.2192561700798628</v>
       </c>
       <c r="N2">
-        <v>2.404653009114547</v>
+        <v>1.207682292752676</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.997794682840464</v>
+        <v>0.7925346015076116</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03964343104020429</v>
+        <v>0.03625373224843997</v>
       </c>
       <c r="E3">
-        <v>0.2972261244797068</v>
+        <v>0.1418543711601907</v>
       </c>
       <c r="F3">
-        <v>1.104247300246456</v>
+        <v>0.8332004893575657</v>
       </c>
       <c r="G3">
-        <v>0.9700920039772996</v>
+        <v>0.7685949719721918</v>
       </c>
       <c r="H3">
-        <v>0.9854591262481023</v>
+        <v>0.5301207628569387</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4014044872924387</v>
+        <v>1.34747831045047</v>
       </c>
       <c r="L3">
-        <v>0.1236262339500769</v>
+        <v>0.1724084208278924</v>
       </c>
       <c r="M3">
-        <v>0.2052274366943507</v>
+        <v>0.1946694277834062</v>
       </c>
       <c r="N3">
-        <v>2.425925513465124</v>
+        <v>1.258723942049162</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9866955024923527</v>
+        <v>0.7382958922948433</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03929840936695328</v>
+        <v>0.03549818834355634</v>
       </c>
       <c r="E4">
-        <v>0.297739208691131</v>
+        <v>0.1425420003776789</v>
       </c>
       <c r="F4">
-        <v>1.098594398568451</v>
+        <v>0.7942500294908541</v>
       </c>
       <c r="G4">
-        <v>0.9649874524818642</v>
+        <v>0.7337155970939619</v>
       </c>
       <c r="H4">
-        <v>0.9861595530082923</v>
+        <v>0.5183065614852467</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3650238376978905</v>
+        <v>1.224646918210965</v>
       </c>
       <c r="L4">
-        <v>0.1198830468782717</v>
+        <v>0.1572322106008599</v>
       </c>
       <c r="M4">
-        <v>0.2019207055858843</v>
+        <v>0.1797731202676296</v>
       </c>
       <c r="N4">
-        <v>2.439696762824571</v>
+        <v>1.291530346841267</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.982295258106177</v>
+        <v>0.716388162634189</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03915654199535368</v>
+        <v>0.03518881239979876</v>
       </c>
       <c r="E5">
-        <v>0.2979566076570146</v>
+        <v>0.1428360380215472</v>
       </c>
       <c r="F5">
-        <v>1.096453876676605</v>
+        <v>0.7787436278105559</v>
       </c>
       <c r="G5">
-        <v>0.9630594387145237</v>
+        <v>0.7198692498159431</v>
       </c>
       <c r="H5">
-        <v>0.9865589805686739</v>
+        <v>0.5137095672057654</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3501889955130366</v>
+        <v>1.174684668679419</v>
       </c>
       <c r="L5">
-        <v>0.118374823443844</v>
+        <v>0.1510843378619597</v>
       </c>
       <c r="M5">
-        <v>0.2005999703093124</v>
+        <v>0.1737488743962423</v>
       </c>
       <c r="N5">
-        <v>2.445487131226621</v>
+        <v>1.305258804092961</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9815720273469424</v>
+        <v>0.7127617543268343</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03913290866693941</v>
+        <v>0.03513735054511002</v>
       </c>
       <c r="E6">
-        <v>0.2979932092243176</v>
+        <v>0.1428856905244915</v>
       </c>
       <c r="F6">
-        <v>1.096108291584507</v>
+        <v>0.7761901842178531</v>
       </c>
       <c r="G6">
-        <v>0.9627484762888514</v>
+        <v>0.7175915032881051</v>
       </c>
       <c r="H6">
-        <v>0.9866321911201084</v>
+        <v>0.512959026228728</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3477251166699489</v>
+        <v>1.16639321871574</v>
       </c>
       <c r="L6">
-        <v>0.1181254215257539</v>
+        <v>0.15006557193486</v>
       </c>
       <c r="M6">
-        <v>0.2003822834050553</v>
+        <v>0.1727512205407535</v>
       </c>
       <c r="N6">
-        <v>2.446459396131274</v>
+        <v>1.307559862023503</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9866356616614098</v>
+        <v>0.7379996667390003</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03929650121820316</v>
+        <v>0.035494022029539</v>
       </c>
       <c r="E7">
-        <v>0.2977421069249082</v>
+        <v>0.1425459102266564</v>
       </c>
       <c r="F7">
-        <v>1.098564870561603</v>
+        <v>0.7940394553820909</v>
       </c>
       <c r="G7">
-        <v>0.9649608348945975</v>
+        <v>0.7335274075821445</v>
       </c>
       <c r="H7">
-        <v>0.9861644782262431</v>
+        <v>0.5182437002209355</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3648238077913959</v>
+        <v>1.223972773631374</v>
       </c>
       <c r="L7">
-        <v>0.1198626369295042</v>
+        <v>0.1571491558747979</v>
       </c>
       <c r="M7">
-        <v>0.2019027851277144</v>
+        <v>0.1796916938052817</v>
       </c>
       <c r="N7">
-        <v>2.439774131165812</v>
+        <v>1.291714049482174</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.010057028159878</v>
+        <v>0.8511208590982733</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04000724356417962</v>
+        <v>0.03705494453605951</v>
       </c>
       <c r="E8">
-        <v>0.2967069786383834</v>
+        <v>0.1411685768776845</v>
       </c>
       <c r="F8">
-        <v>1.110837194484986</v>
+        <v>0.8760892918003549</v>
       </c>
       <c r="G8">
-        <v>0.9760596049884214</v>
+        <v>0.8071448949559539</v>
       </c>
       <c r="H8">
-        <v>0.985101309633464</v>
+        <v>0.5435048267237619</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4401933221098204</v>
+        <v>1.478951435322472</v>
       </c>
       <c r="L8">
-        <v>0.1276790853360552</v>
+        <v>0.1887401599741168</v>
       </c>
       <c r="M8">
-        <v>0.2088473477463424</v>
+        <v>0.2107345432397345</v>
       </c>
       <c r="N8">
-        <v>2.411840427495676</v>
+        <v>1.224971358521412</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.059832755626616</v>
+        <v>1.080305723151014</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04136043984953375</v>
+        <v>0.04007099387684931</v>
       </c>
       <c r="E9">
-        <v>0.294937984418935</v>
+        <v>0.138924914094682</v>
       </c>
       <c r="F9">
-        <v>1.140059341120804</v>
+        <v>1.050634041615993</v>
       </c>
       <c r="G9">
-        <v>1.002642069916575</v>
+        <v>0.9652368410305883</v>
       </c>
       <c r="H9">
-        <v>0.9866129257637795</v>
+        <v>0.6008757271698641</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5876895878130881</v>
+        <v>1.984309603995825</v>
       </c>
       <c r="L9">
-        <v>0.1435461491932415</v>
+        <v>0.2521975652207544</v>
       </c>
       <c r="M9">
-        <v>0.2233054154845178</v>
+        <v>0.2734002867350647</v>
       </c>
       <c r="N9">
-        <v>2.362695154495128</v>
+        <v>1.106164405508402</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.098733762311753</v>
+        <v>1.25426640615396</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0423295928413232</v>
+        <v>0.04226203174808063</v>
       </c>
       <c r="E10">
-        <v>0.2937962129155136</v>
+        <v>0.1375755606974751</v>
       </c>
       <c r="F10">
-        <v>1.164686270516953</v>
+        <v>1.189085476748858</v>
       </c>
       <c r="G10">
-        <v>1.025128557261837</v>
+        <v>1.091696147863985</v>
       </c>
       <c r="H10">
-        <v>0.9899178323372695</v>
+        <v>0.6486858674048364</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6958808678934929</v>
+        <v>2.36109486889805</v>
       </c>
       <c r="L10">
-        <v>0.1555324007699852</v>
+        <v>0.3000625460387454</v>
       </c>
       <c r="M10">
-        <v>0.2344374458612606</v>
+        <v>0.3208386143029216</v>
       </c>
       <c r="N10">
-        <v>2.330021302308594</v>
+        <v>1.026885126392031</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.116934277012433</v>
+        <v>1.334879923600027</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04276498924005878</v>
+        <v>0.04325411296860793</v>
       </c>
       <c r="E11">
-        <v>0.2933108415689771</v>
+        <v>0.1370318994068902</v>
       </c>
       <c r="F11">
-        <v>1.176578602103248</v>
+        <v>1.254746994675031</v>
       </c>
       <c r="G11">
-        <v>1.036004574171216</v>
+        <v>1.151934399770255</v>
       </c>
       <c r="H11">
-        <v>0.9918983177838641</v>
+        <v>0.6718792828954179</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7450649588255942</v>
+        <v>2.534243761912165</v>
       </c>
       <c r="L11">
-        <v>0.1610567471388435</v>
+        <v>0.3221856989852512</v>
       </c>
       <c r="M11">
-        <v>0.239611974875892</v>
+        <v>0.3427967366317617</v>
       </c>
       <c r="N11">
-        <v>2.315902487958496</v>
+        <v>0.9927140667321552</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.123898516687774</v>
+        <v>1.365642078487269</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04292906828853305</v>
+        <v>0.04362918929036042</v>
       </c>
       <c r="E12">
-        <v>0.2931319187983317</v>
+        <v>0.1368366279131674</v>
       </c>
       <c r="F12">
-        <v>1.181181241258457</v>
+        <v>1.280038139482286</v>
       </c>
       <c r="G12">
-        <v>1.040216329880366</v>
+        <v>1.175177627364121</v>
       </c>
       <c r="H12">
-        <v>0.9927168935254542</v>
+        <v>0.6808892169334229</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.76368498562735</v>
+        <v>2.600111177959803</v>
       </c>
       <c r="L12">
-        <v>0.1631589676432412</v>
+        <v>0.3306203849275704</v>
       </c>
       <c r="M12">
-        <v>0.2415872626935567</v>
+        <v>0.3511726624439646</v>
       </c>
       <c r="N12">
-        <v>2.310663183827806</v>
+        <v>0.9800610830990095</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.122395442949824</v>
+        <v>1.359006035217959</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04289376647409426</v>
+        <v>0.04354843560934896</v>
       </c>
       <c r="E13">
-        <v>0.2931702363746596</v>
+        <v>0.136878202788195</v>
       </c>
       <c r="F13">
-        <v>1.180185563311966</v>
+        <v>1.27457157338263</v>
       </c>
       <c r="G13">
-        <v>1.039305102125979</v>
+        <v>1.170151841092888</v>
       </c>
       <c r="H13">
-        <v>0.9925375470674567</v>
+        <v>0.678938339899446</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7596750521273634</v>
+        <v>2.585911306034319</v>
       </c>
       <c r="L13">
-        <v>0.1627057607919795</v>
+        <v>0.3288011672492814</v>
       </c>
       <c r="M13">
-        <v>0.2411611475061903</v>
+        <v>0.3493659414707011</v>
       </c>
       <c r="N13">
-        <v>2.311786793035296</v>
+        <v>0.9827731267151734</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.117505786567534</v>
+        <v>1.337405885196318</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04277850412738005</v>
+        <v>0.04328498241629219</v>
       </c>
       <c r="E14">
-        <v>0.293296023837551</v>
+        <v>0.1370156186777947</v>
       </c>
       <c r="F14">
-        <v>1.176955273684584</v>
+        <v>1.256818914825558</v>
       </c>
       <c r="G14">
-        <v>1.036349207749794</v>
+        <v>1.153837714103418</v>
       </c>
       <c r="H14">
-        <v>0.991964287433575</v>
+        <v>0.6726158673547502</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7465969395432239</v>
+        <v>2.539656415174051</v>
       </c>
       <c r="L14">
-        <v>0.1612294925124047</v>
+        <v>0.3228784390546764</v>
       </c>
       <c r="M14">
-        <v>0.2397741667080169</v>
+        <v>0.3434845704007685</v>
       </c>
       <c r="N14">
-        <v>2.315469298536335</v>
+        <v>0.9916672614240198</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.114520108177089</v>
+        <v>1.32420656128491</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04270779867802688</v>
+        <v>0.04312353320949924</v>
       </c>
       <c r="E15">
-        <v>0.2933737069229296</v>
+        <v>0.1371011867527492</v>
       </c>
       <c r="F15">
-        <v>1.174989560043912</v>
+        <v>1.246001732717986</v>
       </c>
       <c r="G15">
-        <v>1.034550787214101</v>
+        <v>1.143902460186183</v>
       </c>
       <c r="H15">
-        <v>0.9916220844897623</v>
+        <v>0.6687733481082887</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7385855704598328</v>
+        <v>2.511364496504314</v>
       </c>
       <c r="L15">
-        <v>0.160326571719736</v>
+        <v>0.3192582519488099</v>
       </c>
       <c r="M15">
-        <v>0.2389266567876547</v>
+        <v>0.3398901877449916</v>
       </c>
       <c r="N15">
-        <v>2.317738901077981</v>
+        <v>0.9971529855855081</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.097554427556503</v>
+        <v>1.249029792684439</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04230102772608646</v>
+        <v>0.04219710881908156</v>
       </c>
       <c r="E16">
-        <v>0.2938286163875696</v>
+        <v>0.1376125444383907</v>
       </c>
       <c r="F16">
-        <v>1.163922962961863</v>
+        <v>1.184851706872976</v>
       </c>
       <c r="G16">
-        <v>1.024430819344175</v>
+        <v>1.087817540904112</v>
       </c>
       <c r="H16">
-        <v>0.9897980033567535</v>
+        <v>0.6472008081188676</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6926658954466802</v>
+        <v>2.349818386998294</v>
       </c>
       <c r="L16">
-        <v>0.1551728114311999</v>
+        <v>0.2986243504700639</v>
       </c>
       <c r="M16">
-        <v>0.234101494697434</v>
+        <v>0.3194117518098665</v>
       </c>
       <c r="N16">
-        <v>2.330958993438173</v>
+        <v>1.029157606463727</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.087275390322731</v>
+        <v>1.203305661225215</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04205007816005235</v>
+        <v>0.04162763234677058</v>
       </c>
       <c r="E17">
-        <v>0.2941163920131222</v>
+        <v>0.1379445612510595</v>
       </c>
       <c r="F17">
-        <v>1.157310635673838</v>
+        <v>1.148052680057006</v>
       </c>
       <c r="G17">
-        <v>1.01838837515588</v>
+        <v>1.054134771635958</v>
       </c>
       <c r="H17">
-        <v>0.9888011817752442</v>
+        <v>0.6343499793495653</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6644871366480629</v>
+        <v>2.251195775099461</v>
       </c>
       <c r="L17">
-        <v>0.1520294883011815</v>
+        <v>0.2860602928249847</v>
       </c>
       <c r="M17">
-        <v>0.2311696580315186</v>
+        <v>0.3069502101570833</v>
       </c>
       <c r="N17">
-        <v>2.339259893440982</v>
+        <v>1.049286376423915</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.081410647059016</v>
+        <v>1.177143979868021</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04190522367542826</v>
+        <v>0.04129964409847631</v>
       </c>
       <c r="E18">
-        <v>0.2942851166039961</v>
+        <v>0.1381420987330744</v>
       </c>
       <c r="F18">
-        <v>1.15357228314906</v>
+        <v>1.127136372466964</v>
       </c>
       <c r="G18">
-        <v>1.014973786972419</v>
+        <v>1.035013789830202</v>
       </c>
       <c r="H18">
-        <v>0.9882727396474991</v>
+        <v>0.6270932169396275</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6482763986917632</v>
+        <v>2.194631991714431</v>
       </c>
       <c r="L18">
-        <v>0.1502282872569083</v>
+        <v>0.2788661946267297</v>
       </c>
       <c r="M18">
-        <v>0.229493750201776</v>
+        <v>0.2998178411486165</v>
       </c>
       <c r="N18">
-        <v>2.344104438647662</v>
+        <v>1.061041196500859</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.079433114246058</v>
+        <v>1.16830904838352</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04185609026161785</v>
+        <v>0.04118851552015812</v>
       </c>
       <c r="E19">
-        <v>0.2943427945771484</v>
+        <v>0.1382100954081538</v>
       </c>
       <c r="F19">
-        <v>1.152317680909661</v>
+        <v>1.120096122586062</v>
       </c>
       <c r="G19">
-        <v>1.013828112712133</v>
+        <v>1.028581877815611</v>
       </c>
       <c r="H19">
-        <v>0.9881015302054408</v>
+        <v>0.6246587710098765</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.642787202411256</v>
+        <v>2.175506768256042</v>
       </c>
       <c r="L19">
-        <v>0.1496195931524511</v>
+        <v>0.2764357620872744</v>
       </c>
       <c r="M19">
-        <v>0.2289281066416677</v>
+        <v>0.2974087965396208</v>
       </c>
       <c r="N19">
-        <v>2.345756752962359</v>
+        <v>1.065051200119797</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.088364699628272</v>
+        <v>1.208158667594944</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04207684552654101</v>
+        <v>0.04168829925125195</v>
       </c>
       <c r="E20">
-        <v>0.2940854263576829</v>
+        <v>0.13790853400244</v>
       </c>
       <c r="F20">
-        <v>1.158007813058688</v>
+        <v>1.151943886810713</v>
       </c>
       <c r="G20">
-        <v>1.01902530256001</v>
+        <v>1.057693935568068</v>
       </c>
       <c r="H20">
-        <v>0.9889026477601845</v>
+        <v>0.6357038963190007</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6674871320730915</v>
+        <v>2.261677285580106</v>
       </c>
       <c r="L20">
-        <v>0.1523634016001694</v>
+        <v>0.287394354967816</v>
       </c>
       <c r="M20">
-        <v>0.231480680576766</v>
+        <v>0.3082730762044719</v>
       </c>
       <c r="N20">
-        <v>2.3383689939973</v>
+        <v>1.047125184432126</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.118940043680084</v>
+        <v>1.343743787205398</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04281238114668895</v>
+        <v>0.0433623808243695</v>
       </c>
       <c r="E21">
-        <v>0.2932589447822858</v>
+        <v>0.1369749641865594</v>
       </c>
       <c r="F21">
-        <v>1.177901392789082</v>
+        <v>1.262021378246189</v>
       </c>
       <c r="G21">
-        <v>1.037214893086173</v>
+        <v>1.158617479867843</v>
       </c>
       <c r="H21">
-        <v>0.9921308055959344</v>
+        <v>0.6744666048162742</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7504384335657051</v>
+        <v>2.553234057382895</v>
       </c>
       <c r="L21">
-        <v>0.1616628299193934</v>
+        <v>0.3246164794462203</v>
       </c>
       <c r="M21">
-        <v>0.2401811283012023</v>
+        <v>0.3452103657108907</v>
       </c>
       <c r="N21">
-        <v>2.314384747639238</v>
+        <v>0.9890469312279322</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.13934286079575</v>
+        <v>1.433741557345826</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04328845185717967</v>
+        <v>0.04445301046538219</v>
       </c>
       <c r="E22">
-        <v>0.2927472098427548</v>
+        <v>0.1364269002815313</v>
       </c>
       <c r="F22">
-        <v>1.191481688520994</v>
+        <v>1.336471374673948</v>
       </c>
       <c r="G22">
-        <v>1.049646449559276</v>
+        <v>1.227119027099661</v>
       </c>
       <c r="H22">
-        <v>0.9946405025373508</v>
+        <v>0.7011341577729127</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8046231170858107</v>
+        <v>2.745555685736804</v>
       </c>
       <c r="L22">
-        <v>0.1678003866063023</v>
+        <v>0.3492799086675689</v>
       </c>
       <c r="M22">
-        <v>0.2459594635495748</v>
+        <v>0.3697091504519037</v>
       </c>
       <c r="N22">
-        <v>2.299334457732876</v>
+        <v>0.952769087524679</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.128415193239107</v>
+        <v>1.385573235847545</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04303479175205283</v>
+        <v>0.0438712156424117</v>
       </c>
       <c r="E23">
-        <v>0.2930177373748013</v>
+        <v>0.1367135457884174</v>
       </c>
       <c r="F23">
-        <v>1.184180634498603</v>
+        <v>1.296491968306441</v>
       </c>
       <c r="G23">
-        <v>1.042961676051505</v>
+        <v>1.190310875565018</v>
       </c>
       <c r="H23">
-        <v>0.9932644356743197</v>
+        <v>0.6867722839834016</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7757064397324882</v>
+        <v>2.642730706632619</v>
       </c>
       <c r="L23">
-        <v>0.1645191965941564</v>
+        <v>0.3360833326754431</v>
       </c>
       <c r="M23">
-        <v>0.2428670593203606</v>
+        <v>0.3565986423970671</v>
       </c>
       <c r="N23">
-        <v>2.307309877539744</v>
+        <v>0.9719724351901959</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.087872083275187</v>
+        <v>1.205964233512049</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04206474580682595</v>
+        <v>0.04166087358177961</v>
       </c>
       <c r="E24">
-        <v>0.2940994157183681</v>
+        <v>0.1379248012255405</v>
       </c>
       <c r="F24">
-        <v>1.157692422422073</v>
+        <v>1.150183927947168</v>
       </c>
       <c r="G24">
-        <v>1.018737162999926</v>
+        <v>1.056084081676048</v>
       </c>
       <c r="H24">
-        <v>0.9888566359198734</v>
+        <v>0.6350913827769631</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6661308665074728</v>
+        <v>2.25693817571846</v>
       </c>
       <c r="L24">
-        <v>0.152212420901165</v>
+        <v>0.2867911352066983</v>
       </c>
       <c r="M24">
-        <v>0.2313400372374375</v>
+        <v>0.3076749094705633</v>
       </c>
       <c r="N24">
-        <v>2.338771544586571</v>
+        <v>1.048101691904044</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.045956773997176</v>
+        <v>1.017409260034896</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0409987397611502</v>
+        <v>0.03925964746736099</v>
       </c>
       <c r="E25">
-        <v>0.2953887325255145</v>
+        <v>0.1394809797984122</v>
       </c>
       <c r="F25">
-        <v>1.131600520154876</v>
+        <v>1.001767121608538</v>
       </c>
       <c r="G25">
-        <v>0.9949330379543824</v>
+        <v>0.9208075960837618</v>
       </c>
       <c r="H25">
-        <v>0.9858187822824647</v>
+        <v>0.5844294903942284</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5478192996095288</v>
+        <v>1.846803762280871</v>
       </c>
       <c r="L25">
-        <v>0.1391959696345282</v>
+        <v>0.2348372566962382</v>
       </c>
       <c r="M25">
-        <v>0.2193044545246003</v>
+        <v>0.256225517350142</v>
       </c>
       <c r="N25">
-        <v>2.375387318338209</v>
+        <v>1.136948276087537</v>
       </c>
       <c r="O25">
         <v>0</v>
